--- a/data/trans_camb/P36BPD07_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Provincia-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-1.037621927604881</v>
+        <v>1.037621927604884</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-0.4261704367480856</v>
+        <v>0.4261704367480801</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.7282485979869135</v>
+        <v>0.7282485979869302</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.326078076333605</v>
+        <v>-5.184015497039582</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.566275730001755</v>
+        <v>-5.39578126498463</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.273250962469663</v>
+        <v>-3.387449602251273</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.184015497039586</v>
+        <v>8.326078076333594</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.395781264984623</v>
+        <v>6.566275730001762</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.387449602251267</v>
+        <v>5.273250962469668</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.01236044719304272</v>
+        <v>0.06463708595499396</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.004940057667482583</v>
+        <v>0.03103554642848197</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.008557808675877193</v>
+        <v>0.04886772727840309</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.09551115802743056</v>
+        <v>-0.2795333078693903</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.07298358854056698</v>
+        <v>-0.3272306613977267</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.06072448811104097</v>
+        <v>-0.1968228829276462</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.06469528027199749</v>
+        <v>0.6365815670203693</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.06532858667446403</v>
+        <v>0.6274620336588194</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.04010577231030761</v>
+        <v>0.4164766629185602</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-3.909093126729934</v>
+        <v>3.90909312672994</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-6.864514532728149</v>
+        <v>6.864514532728149</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-5.415791011281923</v>
+        <v>5.415791011281917</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.706965815853701</v>
+        <v>-1.796091204288644</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.13921788480815</v>
+        <v>2.49551039000013</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.116817994589754</v>
+        <v>2.18717329658455</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.79609120428864</v>
+        <v>9.706965815853698</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.495510390000135</v>
+        <v>11.13921788480815</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.187173296584559</v>
+        <v>9.11681799458975</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-0.04662116056604534</v>
+        <v>0.2420197992632841</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.07782517095298777</v>
+        <v>0.5819504637578133</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.06292713701102196</v>
+        <v>0.3886320047892092</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1140122013109671</v>
+        <v>-0.0901526476500453</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1245661682738405</v>
+        <v>0.1766814088107816</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1050132615786276</v>
+        <v>0.1407448741301908</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.02177102049731453</v>
+        <v>0.7109115936004644</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.03160201385164033</v>
+        <v>1.171247456344629</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.02601251759510369</v>
+        <v>0.7174706341470225</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-15.50009146473759</v>
+        <v>15.50009146473758</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-10.01822387464272</v>
+        <v>10.01822387464274</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-12.56105013009777</v>
+        <v>12.56105013009777</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-20.6277706733092</v>
+        <v>10.87854847853222</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.08551324745506</v>
+        <v>6.866076934479086</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.45270622969524</v>
+        <v>9.521112801792347</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.87854847853222</v>
+        <v>20.62777067330919</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-6.866076934479111</v>
+        <v>13.08551324745507</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-9.521112801792357</v>
+        <v>15.45270622969525</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-0.1618026364545292</v>
+        <v>3.687236460690378</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.1019412611740918</v>
+        <v>5.805897414630253</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1293913489157918</v>
+        <v>4.298748285342222</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2136954424869154</v>
+        <v>1.841147391912783</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1323211374162705</v>
+        <v>2.145237359374349</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1582919290702783</v>
+        <v>2.309351539678471</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1155482301345086</v>
+        <v>8.155614491424668</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.07047302159747304</v>
+        <v>16.603465423268</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.09855522091852256</v>
+        <v>7.658474551587342</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>4.113864395532108</v>
+        <v>-4.113864395532108</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7340382729719042</v>
+        <v>-0.7340382729719236</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.430462184080406</v>
+        <v>-2.430462184080434</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.291319208562315</v>
+        <v>-10.76330741058226</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.571154092143864</v>
+        <v>-5.992377125561397</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.510822892096997</v>
+        <v>-6.586005940309215</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.76330741058225</v>
+        <v>3.291319208562311</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.992377125561383</v>
+        <v>4.571154092143838</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.586005940309225</v>
+        <v>2.510822892096987</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0.05221786547375962</v>
+        <v>-0.193891978083186</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.008740211511862564</v>
+        <v>-0.04583167488350111</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.02984667629511668</v>
+        <v>-0.1308922867030333</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.0400996628330442</v>
+        <v>-0.4517404685709548</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.05329759605157796</v>
+        <v>-0.3341322934151973</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.02966477811967959</v>
+        <v>-0.3323270874177611</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1398960020121426</v>
+        <v>0.1881393458817858</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.07326475321810171</v>
+        <v>0.3138959362565133</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.08204998206724613</v>
+        <v>0.1480068775081259</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-4.889632600376581</v>
+        <v>4.889632600376567</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>1.001386279864103</v>
+        <v>-1.001386279864094</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.721806596561026</v>
+        <v>1.721806596561024</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-12.34752165279805</v>
+        <v>-2.364976463897281</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.734045483031267</v>
+        <v>-6.900516574714052</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.739504821140272</v>
+        <v>-2.897233578739446</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.364976463897283</v>
+        <v>12.34752165279805</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.900516574714064</v>
+        <v>4.734045483031283</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.89723357873945</v>
+        <v>6.739504821140279</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>-0.06017603541780354</v>
+        <v>0.2608566353439243</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.01162012784701912</v>
+        <v>-0.07244281762851783</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.02055683587036781</v>
+        <v>0.1060117846263859</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1447715047014189</v>
+        <v>-0.118572954769485</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.05349020931836267</v>
+        <v>-0.3892032492511662</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.07772182767480119</v>
+        <v>-0.1569210776958341</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.03020611808352599</v>
+        <v>0.8530643023629884</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.08400410617489645</v>
+        <v>0.4942003152174549</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.03558398630881238</v>
+        <v>0.5087982719625862</v>
       </c>
     </row>
     <row r="34">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>-1.011243768412495</v>
+        <v>1.011243768412501</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>1.555861719647955</v>
+        <v>-1.555861719647943</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.185132499324292</v>
+        <v>-0.1851324993242726</v>
       </c>
     </row>
     <row r="35">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-6.680669764060637</v>
+        <v>-4.941038699206706</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.650386352680421</v>
+        <v>-5.594877042578929</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.33816693121721</v>
+        <v>-3.60793009129983</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.941038699206722</v>
+        <v>6.680669764060637</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.594877042578935</v>
+        <v>2.650386352680422</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.607930091299833</v>
+        <v>3.338166931217209</v>
       </c>
     </row>
     <row r="37">
@@ -1145,13 +1145,13 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>-0.01165622290296606</v>
+        <v>0.07635312626389852</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.01705825021556353</v>
+        <v>-0.1769784885823809</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.002079586341296557</v>
+        <v>-0.01686658824228024</v>
       </c>
     </row>
     <row r="38">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.07527749541984574</v>
+        <v>-0.3057528410001649</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.02818615199833948</v>
+        <v>-0.5028042387582274</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.03711245362962224</v>
+        <v>-0.278142899535812</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.05982394835463135</v>
+        <v>0.6746670539343358</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.06362176855515854</v>
+        <v>0.4608393521007622</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.04131355523005929</v>
+        <v>0.363428156147765</v>
       </c>
     </row>
     <row r="40">
@@ -1200,13 +1200,13 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>-4.8945840997216</v>
+        <v>4.894584099721605</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>-0.6410464462298204</v>
+        <v>0.6410464462298149</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-2.711010767187483</v>
+        <v>2.711010767187491</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.628195108162117</v>
+        <v>0.05977700150076708</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.890184115679085</v>
+        <v>-3.092331854086777</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.986562392745268</v>
+        <v>-0.08819622515611646</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.05977700150077564</v>
+        <v>9.628195108162108</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.092331854086767</v>
+        <v>4.890184115679078</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.08819622515612077</v>
+        <v>5.986562392745251</v>
       </c>
     </row>
     <row r="43">
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="C43" s="6" t="n">
-        <v>-0.05726620331919932</v>
+        <v>0.3368774548158904</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.007829676557010298</v>
+        <v>0.0353660059035683</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.03241777109590976</v>
+        <v>0.165581197351847</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1107440709797243</v>
+        <v>-0.005661109290742561</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.05870231160124183</v>
+        <v>-0.1516578463203376</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.0706598459216055</v>
+        <v>-0.002976863512753926</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.000554449448806902</v>
+        <v>0.7715432641757535</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.03903066924137852</v>
+        <v>0.3049007468306181</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.0008459054523296113</v>
+        <v>0.3993227503153689</v>
       </c>
     </row>
     <row r="46">
@@ -1306,13 +1306,13 @@
         </is>
       </c>
       <c r="C46" s="5" t="n">
-        <v>-44.01856546922114</v>
+        <v>44.01856546922116</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>-37.998353786723</v>
+        <v>37.99835378672299</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-40.96555499672946</v>
+        <v>40.96555499672946</v>
       </c>
     </row>
     <row r="47">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-48.16993697011476</v>
+        <v>39.28099066867093</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-41.84848255110888</v>
+        <v>33.8953356168506</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-44.12124223606587</v>
+        <v>37.66259636102143</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-39.28099066867091</v>
+        <v>48.16993697011477</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-33.89533561685062</v>
+        <v>41.84848255110888</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-37.66259636102141</v>
+        <v>44.12124223606587</v>
       </c>
     </row>
     <row r="49">
@@ -1357,13 +1357,13 @@
         </is>
       </c>
       <c r="C49" s="6" t="n">
-        <v>-0.536111262691637</v>
+        <v>2.460119795719196</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>-0.4461085979682723</v>
+        <v>2.563535262878377</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.4894815801897754</v>
+        <v>2.511948112321789</v>
       </c>
     </row>
     <row r="50">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.577086294854845</v>
+        <v>1.947946911864778</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.483385360371568</v>
+        <v>1.993810424582162</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5212211798874228</v>
+        <v>2.074356451894767</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.4865268032261102</v>
+        <v>3.092198980819592</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.4046330952294903</v>
+        <v>3.289385936532085</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.457525927123027</v>
+        <v>2.952305013416192</v>
       </c>
     </row>
     <row r="52">
@@ -1412,13 +1412,13 @@
         </is>
       </c>
       <c r="C52" s="5" t="n">
-        <v>-12.92292958701067</v>
+        <v>12.92292958701066</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>-10.43115143085047</v>
+        <v>10.43115143085044</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-11.63597261714442</v>
+        <v>11.6359726171444</v>
       </c>
     </row>
     <row r="53">
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-14.95799306937929</v>
+        <v>10.64775420906514</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-12.07193983542488</v>
+        <v>8.636875622707526</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-12.90954361676808</v>
+        <v>10.22513175991538</v>
       </c>
     </row>
     <row r="54">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-10.64775420906514</v>
+        <v>14.95799306937927</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-8.636875622707537</v>
+        <v>12.07193983542488</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-10.22513175991539</v>
+        <v>12.90954361676809</v>
       </c>
     </row>
     <row r="55">
@@ -1463,13 +1463,13 @@
         </is>
       </c>
       <c r="C55" s="6" t="n">
-        <v>-0.1531371977232865</v>
+        <v>0.8277519438900278</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>-0.1202709561879147</v>
+        <v>0.7860955077306844</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.1359583102524528</v>
+        <v>0.8072048310386665</v>
       </c>
     </row>
     <row r="56">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.1760446317118263</v>
+        <v>0.6438235220867711</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1383888719617317</v>
+        <v>0.6035416549525449</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.1500959170868133</v>
+        <v>0.6743132317232112</v>
       </c>
     </row>
     <row r="57">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.1267212473651877</v>
+        <v>1.017411985101647</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.100661348200971</v>
+        <v>0.9717394972955287</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.1201298740642782</v>
+        <v>0.9363579655733087</v>
       </c>
     </row>
     <row r="58">

--- a/data/trans_camb/P36BPD07_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Provincia-trans_camb.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día</t>
+          <t>Población que consume al menos una bebida azucarada por día</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P36BPD07_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Provincia-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>1.037621927604884</v>
+        <v>1.037621927604887</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.4261704367480801</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7282485979869302</v>
+        <v>0.7282485979869358</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.184015497039582</v>
+        <v>-5.658148498908722</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.39578126498463</v>
+        <v>-5.028137314750211</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.387449602251273</v>
+        <v>-3.75394692175183</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.326078076333594</v>
+        <v>7.973107140094772</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.566275730001762</v>
+        <v>6.292859356202745</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.273250962469668</v>
+        <v>4.740328351198615</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0.06463708595499396</v>
+        <v>0.06463708595499412</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0.03103554642848197</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.04886772727840309</v>
+        <v>0.04886772727840346</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2795333078693903</v>
+        <v>-0.2877728297186671</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3272306613977267</v>
+        <v>-0.3046354465159712</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1968228829276462</v>
+        <v>-0.2224116777665978</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6365815670203693</v>
+        <v>0.6739545314229302</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6274620336588194</v>
+        <v>0.6091029103511574</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4164766629185602</v>
+        <v>0.3715532405835222</v>
       </c>
     </row>
     <row r="10">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>3.90909312672994</v>
+        <v>3.909093126729937</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>6.864514532728149</v>
+        <v>6.864514532728147</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>5.415791011281917</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.796091204288644</v>
+        <v>-1.645549617218201</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.49551039000013</v>
+        <v>2.490741434182003</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.18717329658455</v>
+        <v>1.393073615487975</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.706965815853698</v>
+        <v>9.588419565254629</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.13921788480815</v>
+        <v>11.15956668215307</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.11681799458975</v>
+        <v>8.747130428197323</v>
       </c>
     </row>
     <row r="13">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.2420197992632841</v>
+        <v>0.242019799263284</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.5819504637578133</v>
+        <v>0.5819504637578131</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.3886320047892092</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0901526476500453</v>
+        <v>-0.09612107917481794</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1766814088107816</v>
+        <v>0.1546578656951816</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1407448741301908</v>
+        <v>0.08019629910548681</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7109115936004644</v>
+        <v>0.7164742615415173</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.171247456344629</v>
+        <v>1.112653519608083</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7174706341470225</v>
+        <v>0.7180671784529961</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.87854847853222</v>
+        <v>10.8447831613825</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.866076934479086</v>
+        <v>6.85069579801562</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.521112801792347</v>
+        <v>9.671423801394502</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>20.62777067330919</v>
+        <v>21.0424486559519</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.08551324745507</v>
+        <v>13.25473315544977</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.45270622969525</v>
+        <v>15.62149633316304</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>1.841147391912783</v>
+        <v>1.777662625146486</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>2.145237359374349</v>
+        <v>2.002836046066655</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>2.309351539678471</v>
+        <v>2.33436032856351</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>8.155614491424668</v>
+        <v>7.62573421859751</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>16.603465423268</v>
+        <v>15.47962804063264</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>7.658474551587342</v>
+        <v>7.256516070292947</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-4.113864395532108</v>
+        <v>-4.113864395532111</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>-0.7340382729719236</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.76330741058226</v>
+        <v>-10.55233675295441</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.992377125561397</v>
+        <v>-5.483813757258696</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.586005940309215</v>
+        <v>-6.425376017954266</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.291319208562311</v>
+        <v>3.281220529482491</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.571154092143838</v>
+        <v>4.718185801621189</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.510822892096987</v>
+        <v>2.026685776285858</v>
       </c>
     </row>
     <row r="25">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.193891978083186</v>
+        <v>-0.1938919780831861</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>-0.04583167488350111</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4517404685709548</v>
+        <v>-0.4466158705171354</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3341322934151973</v>
+        <v>-0.3037235828552299</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3323270874177611</v>
+        <v>-0.3197148957486307</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1881393458817858</v>
+        <v>0.1799114974725505</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3138959362565133</v>
+        <v>0.3685046896939824</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1480068775081259</v>
+        <v>0.1186262620865356</v>
       </c>
     </row>
     <row r="28">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>4.889632600376567</v>
+        <v>4.889632600376564</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-1.001386279864094</v>
+        <v>-1.001386279864097</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>1.721806596561024</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.364976463897281</v>
+        <v>-2.907483641092788</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.900516574714052</v>
+        <v>-7.130070001244329</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.897233578739446</v>
+        <v>-3.125822350043768</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.34752165279805</v>
+        <v>13.14944834075584</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.734045483031283</v>
+        <v>4.314845594044021</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.739504821140279</v>
+        <v>6.793566763102378</v>
       </c>
     </row>
     <row r="31">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>0.2608566353439243</v>
+        <v>0.2608566353439242</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.07244281762851783</v>
+        <v>-0.07244281762851802</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.1060117846263859</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.118572954769485</v>
+        <v>-0.135479028910882</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3892032492511662</v>
+        <v>-0.398033833640067</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1569210776958341</v>
+        <v>-0.1660637313839059</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8530643023629884</v>
+        <v>0.9166827287291615</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4942003152174549</v>
+        <v>0.4026497601480216</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5087982719625862</v>
+        <v>0.5064418432343064</v>
       </c>
     </row>
     <row r="34">
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>1.011243768412501</v>
+        <v>1.011243768412504</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-1.555861719647943</v>
+        <v>-1.555861719647944</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>-0.1851324993242726</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.941038699206706</v>
+        <v>-4.799828560492707</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.594877042578929</v>
+        <v>-5.806754793041959</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.60793009129983</v>
+        <v>-3.879485345886218</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.680669764060637</v>
+        <v>6.424834906969867</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.650386352680422</v>
+        <v>2.654769170991323</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.338166931217209</v>
+        <v>3.825759276815281</v>
       </c>
     </row>
     <row r="37">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>0.07635312626389852</v>
+        <v>0.07635312626389873</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.1769784885823809</v>
+        <v>-0.1769784885823811</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.01686658824228024</v>
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3057528410001649</v>
+        <v>-0.3079631693160216</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5028042387582274</v>
+        <v>-0.5120833051218963</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.278142899535812</v>
+        <v>-0.2999618826602574</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.6746670539343358</v>
+        <v>0.6224791616914291</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4608393521007622</v>
+        <v>0.4326985506718631</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.363428156147765</v>
+        <v>0.4332675015256494</v>
       </c>
     </row>
     <row r="40">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.05977700150076708</v>
+        <v>0.117912668117485</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.092331854086777</v>
+        <v>-3.747196870061458</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.08819622515611646</v>
+        <v>-0.3251750759089007</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.628195108162108</v>
+        <v>9.376817090101854</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.890184115679078</v>
+        <v>4.589238003158599</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.986562392745251</v>
+        <v>5.992914196938883</v>
       </c>
     </row>
     <row r="43">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.005661109290742561</v>
+        <v>0.002089977263377259</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1516578463203376</v>
+        <v>-0.1869234578959289</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.002976863512753926</v>
+        <v>-0.01761981198443048</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7715432641757535</v>
+        <v>0.7500127722945952</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3049007468306181</v>
+        <v>0.2820001070133038</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3993227503153689</v>
+        <v>0.4025415462918784</v>
       </c>
     </row>
     <row r="46">
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="C46" s="5" t="n">
-        <v>44.01856546922116</v>
+        <v>44.01856546922115</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>37.99835378672299</v>
+        <v>37.998353786723</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>40.96555499672946</v>
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>39.28099066867093</v>
+        <v>38.92126611991215</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>33.8953356168506</v>
+        <v>34.15791784556676</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>37.66259636102143</v>
+        <v>37.51456322008885</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>48.16993697011477</v>
+        <v>48.54734109442184</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>41.84848255110888</v>
+        <v>41.81090807903386</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>44.12124223606587</v>
+        <v>43.82971329246634</v>
       </c>
     </row>
     <row r="49">
@@ -1360,7 +1360,7 @@
         <v>2.460119795719196</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>2.563535262878377</v>
+        <v>2.563535262878378</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>2.511948112321789</v>
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>1.947946911864778</v>
+        <v>1.902814486864252</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>1.993810424582162</v>
+        <v>1.997119732671432</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>2.074356451894767</v>
+        <v>2.088399453374567</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>3.092198980819592</v>
+        <v>3.101346897127996</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>3.289385936532085</v>
+        <v>3.256065913454231</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>2.952305013416192</v>
+        <v>2.935515573225579</v>
       </c>
     </row>
     <row r="52">
@@ -1415,10 +1415,10 @@
         <v>12.92292958701066</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>10.43115143085044</v>
+        <v>10.43115143085045</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>11.6359726171444</v>
+        <v>11.63597261714441</v>
       </c>
     </row>
     <row r="53">
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>10.64775420906514</v>
+        <v>10.6282766955251</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>8.636875622707526</v>
+        <v>8.854588208032057</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>10.22513175991538</v>
+        <v>10.15865355583854</v>
       </c>
     </row>
     <row r="54">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>14.95799306937927</v>
+        <v>15.03120776178742</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>12.07193983542488</v>
+        <v>12.372363483615</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>12.90954361676809</v>
+        <v>13.03261466101824</v>
       </c>
     </row>
     <row r="55">
@@ -1463,13 +1463,13 @@
         </is>
       </c>
       <c r="C55" s="6" t="n">
-        <v>0.8277519438900278</v>
+        <v>0.8277519438900282</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>0.7860955077306844</v>
+        <v>0.7860955077306848</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.8072048310386665</v>
+        <v>0.8072048310386668</v>
       </c>
     </row>
     <row r="56">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.6438235220867711</v>
+        <v>0.6333264023846972</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.6035416549525449</v>
+        <v>0.6227617683482933</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.6743132317232112</v>
+        <v>0.6769080110986196</v>
       </c>
     </row>
     <row r="57">
@@ -1497,13 +1497,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1.017411985101647</v>
+        <v>1.014881747823795</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.9717394972955287</v>
+        <v>1.005258210078478</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.9363579655733087</v>
+        <v>0.9391918714828468</v>
       </c>
     </row>
     <row r="58">
